--- a/Unity/Assets/Config/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
@@ -4,18 +4,31 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowHeight="17680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
     <sheet name="Router" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -90,6 +103,9 @@
   </si>
   <si>
     <t>Router01</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
   <si>
     <t>Router02</t>
@@ -104,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1097,20 +1113,20 @@
   <dimension ref="C3:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.1238938053097" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6283185840708" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3716814159292" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1238938053097" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.1272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6272727272727" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3727272727273" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.1272727272727" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
+    <row r="3" ht="13.5" spans="3:8">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1130,7 +1146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" ht="13.5" spans="3:8">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" ht="13.5" spans="3:8">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1195,7 +1211,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -1215,7 +1231,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -1235,7 +1251,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -1253,7 +1269,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -1271,7 +1287,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -1289,7 +1305,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
@@ -1312,23 +1328,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H10"/>
+  <dimension ref="B3:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.1238938053097" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6283185840708" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3716814159292" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1238938053097" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.1272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6272727272727" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3727272727273" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.1272727272727" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
+    <row r="3" ht="13.5" spans="3:8">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" ht="13.5" spans="3:8">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1368,7 +1384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" ht="13.5" spans="3:8">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1393,7 +1409,7 @@
         <v>300</v>
       </c>
       <c r="D6" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E6" s="5">
         <v>3</v>
@@ -1413,7 +1429,7 @@
         <v>301</v>
       </c>
       <c r="D7" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5">
         <v>3</v>
@@ -1428,12 +1444,15 @@
         <v>30301</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:8">
+    <row r="8" s="1" customFormat="1" spans="2:8">
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C8" s="5">
         <v>302</v>
       </c>
       <c r="D8" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
@@ -1442,18 +1461,21 @@
         <v>23</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H8" s="5">
         <v>30302</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:8">
+    <row r="9" s="1" customFormat="1" spans="2:8">
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C9" s="5">
         <v>303</v>
       </c>
       <c r="D9" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5">
         <v>3</v>
@@ -1462,18 +1484,21 @@
         <v>23</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H9" s="5">
         <v>30303</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:8">
+    <row r="10" s="1" customFormat="1" spans="2:8">
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C10" s="5">
         <v>304</v>
       </c>
       <c r="D10" s="5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5">
         <v>3</v>
@@ -1482,7 +1507,7 @@
         <v>23</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H10" s="5">
         <v>30304</v>
